--- a/test_bh_directory.xlsx
+++ b/test_bh_directory.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H2"/>
+  <dimension ref="A1:H19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -511,6 +511,687 @@
         </is>
       </c>
       <c r="H2" t="inlineStr">
+        <is>
+          <t>EBP FINDER</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>2</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>About Change</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>4000 Genesee Pl Suite 101 Woodbridge VA 22192</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>22192</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>www.aboutchangeva.com</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>referral@aboutchangeva.com</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>571-659-0056</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>EBP FINDER</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>3</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Alexandria Department of Community &amp; Human Services</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>4850 Mark Center Dr. Alexandria VA 22311</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>22311</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>https://www.alexandriava.gov/DCHS</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>jessica.anderson@alexandriava.gov (HFW),
+molly.schnure@alexandriava.gov (ACT)</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>571-213-7963</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>EBP FINDER</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>4</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Alicia's Place</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>1021 Eden Way N Ste 109 Chesapeake VA 23320</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>23320</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>https://alicias.place/</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>director@aliciasplace.org</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>757-785-5540</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>EBP FINDER</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>5</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Arlington Department of Children and Families</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>2100 Washington Blvd 3rd Floor Arlington VA 22204</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>22204</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>https://www.arlingtonva.us/Government/Departments/DHS/Child-Family-Services</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>cbhbinfo@arlingtonva.us (HFW), ecollingridge@arlingtonva.us (ACT)</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>703-228-1550</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>EBP FINDER</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>6</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Blue Ridge Behavioral Healthcare Child &amp; Family Services</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>1315 Franklin Road, SW Roanoke VA 24016</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>24016</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>http://www.brbh.org/</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>cgraves@brbh.org</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>540-981-1102</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>EBP FINDER</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>7</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Blue Ridge Behavioral Healthcare Gliniecki Recovery Center</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>3003 Hollins Rd NE Roanoke VA 24012</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>24012</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>https://www.brbh.org/</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>mgeorgeff@brbh.org</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>5403451584</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>EBP FINDER</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>9</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Caring Hearts Counseling</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>825 Memorial Blvd N Martinsville Virginia 24112</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>24112</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>https://www.chcounseling.org/</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>campbell@chcounseling.org</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>276-403-5100</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>EBP FINDER</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>11</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Chesapeake Integrated Behavioral Healthcare</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>224 Great Bridge Blvd. Chesapeake Virginia 23320</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>23320</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>https://www.cityofchesapeake.net/1284/Chesapeake-Integrated-Behavioral-Healthc</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>mwaldron@chesapeakeibh.net</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>757-272-5998</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>EBP FINDER</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>13</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Children's Home Society of Virginia</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>4200 Fitzhugh Ave Richmond VA 23230</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>23230</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>https://chsva.org/</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>info@chsva.org</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>804-353-0191</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>EBP FINDER</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>14</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Civitas Health Services, Inc.</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>5701 S. Laburnum Ave Henrico VA 23231</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>23231</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>https://www.civitashealth.com/</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>info@civitashealth.com</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>804-737-3917</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>EBP FINDER</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>15</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Clarvida  - Cedar Bluff</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>220 Clay Dr Pounding Mill VA 24637</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>24637</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>https://www.clarvida.com/virginia/</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>ptw_va_referrals@clarvida.com</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>540-283-0486</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>EBP FINDER</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>20</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Colonial Behavioral Health</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>1657 Merrimac Trail Williamsburg VA 23185</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>23185</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>https://www.colonialbh.org/</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>tpritchard@colonialbh.org</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>757-220-3200</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>EBP FINDER</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>21</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Compass Hampton Roads</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>7460 Central Business Park Drive Norfolk VA 23513</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>23513</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>https://compassva.com/location/hampton-roads/</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>sarah@compassva.com</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>757-644-6391</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>EBP FINDER</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>22</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Compass NOVA</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>7611 Coppermine Drive Manassas VA 20109</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>20109</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>https://compassva.com/location/nova/</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>mary@compassnova.com</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>(703) 496-7804</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>EBP FINDER</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>23</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Danville-Pittsylvania Community Services</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>245 Hairston St. Danville VA 24540</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>24540</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>https://www.dpcs.org/</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>wgirten@dpcs.org (HFW), kprice@dpcs.org (PCIT), ncoates@dpcs.org (ACT)</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>434-799-0456</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>EBP FINDER</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>24</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>DePaul Community Resources</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>5650 Hollins Road Roanoke VA 24019</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>24019</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>https://www.depaulcr.org/about/</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>JPoston@depaulcr.org</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>276-230-0655</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>EBP FINDER</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>25</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>EMS of Virginia</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>707 N. Courthouse Rd N. Chesterfield VA 23236</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>23236</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>www.emsofvirginia.com</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>inquiry@emsofvirginia.com</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>(804) 332-5696</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr">
         <is>
           <t>EBP FINDER</t>
         </is>
@@ -554,7 +1235,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>49</v>
+        <v>32</v>
       </c>
     </row>
   </sheetData>
